--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -88,10 +94,7 @@
     <t>Csf3r</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.169390595373346</v>
+        <v>0.3594423333333334</v>
       </c>
       <c r="H2">
-        <v>0.169390595373346</v>
+        <v>1.078327</v>
       </c>
       <c r="I2">
-        <v>0.09695862523996504</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="J2">
-        <v>0.09695862523996504</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>43.3511142222196</v>
+        <v>0.031135</v>
       </c>
       <c r="N2">
-        <v>43.3511142222196</v>
+        <v>0.093405</v>
       </c>
       <c r="O2">
-        <v>0.04825514195277592</v>
+        <v>3.267793989902611E-05</v>
       </c>
       <c r="P2">
-        <v>0.04825514195277592</v>
+        <v>3.267793989902611E-05</v>
       </c>
       <c r="Q2">
-        <v>7.343271048199705</v>
+        <v>0.01119123704833333</v>
       </c>
       <c r="R2">
-        <v>7.343271048199705</v>
+        <v>0.100721133435</v>
       </c>
       <c r="S2">
-        <v>0.004678752224500515</v>
+        <v>5.168410575911878E-06</v>
       </c>
       <c r="T2">
-        <v>0.004678752224500515</v>
+        <v>5.168410575911879E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.169390595373346</v>
+        <v>0.3594423333333334</v>
       </c>
       <c r="H3">
-        <v>0.169390595373346</v>
+        <v>1.078327</v>
       </c>
       <c r="I3">
-        <v>0.09695862523996504</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="J3">
-        <v>0.09695862523996504</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3685664383829</v>
+        <v>50.84225133333333</v>
       </c>
       <c r="N3">
-        <v>59.3685664383829</v>
+        <v>152.526754</v>
       </c>
       <c r="O3">
-        <v>0.06608454367128129</v>
+        <v>0.05336181253900262</v>
       </c>
       <c r="P3">
-        <v>0.06608454367128129</v>
+        <v>0.05336181253900263</v>
       </c>
       <c r="Q3">
-        <v>10.05647681545973</v>
+        <v>18.27485745117311</v>
       </c>
       <c r="R3">
-        <v>10.05647681545973</v>
+        <v>164.473717060558</v>
       </c>
       <c r="S3">
-        <v>0.006407466503977866</v>
+        <v>0.008439814661775165</v>
       </c>
       <c r="T3">
-        <v>0.006407466503977866</v>
+        <v>0.008439814661775166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.169390595373346</v>
+        <v>0.3594423333333334</v>
       </c>
       <c r="H4">
-        <v>0.169390595373346</v>
+        <v>1.078327</v>
       </c>
       <c r="I4">
-        <v>0.09695862523996504</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="J4">
-        <v>0.09695862523996504</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>795.653269203361</v>
+        <v>61.787136</v>
       </c>
       <c r="N4">
-        <v>795.653269203361</v>
+        <v>185.361408</v>
       </c>
       <c r="O4">
-        <v>0.8856603143759427</v>
+        <v>0.06484908677504264</v>
       </c>
       <c r="P4">
-        <v>0.8856603143759427</v>
+        <v>0.06484908677504266</v>
       </c>
       <c r="Q4">
-        <v>134.7761809811064</v>
+        <v>22.208912333824</v>
       </c>
       <c r="R4">
-        <v>134.7761809811064</v>
+        <v>199.880211004416</v>
       </c>
       <c r="S4">
-        <v>0.08587240651148666</v>
+        <v>0.0102566657188921</v>
       </c>
       <c r="T4">
-        <v>0.08587240651148666</v>
+        <v>0.0102566657188921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.57764939157075</v>
+        <v>0.3594423333333334</v>
       </c>
       <c r="H5">
-        <v>1.57764939157075</v>
+        <v>1.078327</v>
       </c>
       <c r="I5">
-        <v>0.903041374760035</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="J5">
-        <v>0.903041374760035</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.3511142222196</v>
+        <v>840.1140543333335</v>
       </c>
       <c r="N5">
-        <v>43.3511142222196</v>
+        <v>2520.342163</v>
       </c>
       <c r="O5">
-        <v>0.04825514195277592</v>
+        <v>0.8817471198275839</v>
       </c>
       <c r="P5">
-        <v>0.04825514195277592</v>
+        <v>0.881747119827584</v>
       </c>
       <c r="Q5">
-        <v>68.39285897659883</v>
+        <v>301.9725559557002</v>
       </c>
       <c r="R5">
-        <v>68.39285897659883</v>
+        <v>2717.753003601301</v>
       </c>
       <c r="S5">
-        <v>0.0435763897282754</v>
+        <v>0.139458948559133</v>
       </c>
       <c r="T5">
-        <v>0.0435763897282754</v>
+        <v>0.139458948559133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.57764939157075</v>
+        <v>0.3594423333333334</v>
       </c>
       <c r="H6">
-        <v>1.57764939157075</v>
+        <v>1.078327</v>
       </c>
       <c r="I6">
-        <v>0.903041374760035</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="J6">
-        <v>0.903041374760035</v>
+        <v>0.1581620687192068</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>59.3685664383829</v>
+        <v>0.008863666666666667</v>
       </c>
       <c r="N6">
-        <v>59.3685664383829</v>
+        <v>0.026591</v>
       </c>
       <c r="O6">
-        <v>0.06608454367128129</v>
+        <v>9.302918471762789E-06</v>
       </c>
       <c r="P6">
-        <v>0.06608454367128129</v>
+        <v>9.302918471762791E-06</v>
       </c>
       <c r="Q6">
-        <v>93.66278271994243</v>
+        <v>0.003185977028555556</v>
       </c>
       <c r="R6">
-        <v>93.66278271994243</v>
+        <v>0.028673793257</v>
       </c>
       <c r="S6">
-        <v>0.05967707716730342</v>
+        <v>1.471368830620125E-06</v>
       </c>
       <c r="T6">
-        <v>0.05967707716730342</v>
+        <v>1.471368830620125E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1597736666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.479321</v>
+      </c>
+      <c r="I7">
+        <v>0.07030372135776897</v>
+      </c>
+      <c r="J7">
+        <v>0.07030372135776895</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.031135</v>
+      </c>
+      <c r="N7">
+        <v>0.093405</v>
+      </c>
+      <c r="O7">
+        <v>3.267793989902611E-05</v>
+      </c>
+      <c r="P7">
+        <v>3.267793989902611E-05</v>
+      </c>
+      <c r="Q7">
+        <v>0.004974553111666667</v>
+      </c>
+      <c r="R7">
+        <v>0.044770978005</v>
+      </c>
+      <c r="S7">
+        <v>2.297380781207052E-06</v>
+      </c>
+      <c r="T7">
+        <v>2.297380781207052E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1597736666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.479321</v>
+      </c>
+      <c r="I8">
+        <v>0.07030372135776897</v>
+      </c>
+      <c r="J8">
+        <v>0.07030372135776895</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>50.84225133333333</v>
+      </c>
+      <c r="N8">
+        <v>152.526754</v>
+      </c>
+      <c r="O8">
+        <v>0.05336181253900262</v>
+      </c>
+      <c r="P8">
+        <v>0.05336181253900263</v>
+      </c>
+      <c r="Q8">
+        <v>8.123252917114888</v>
+      </c>
+      <c r="R8">
+        <v>73.10927625403399</v>
+      </c>
+      <c r="S8">
+        <v>0.003751533999887543</v>
+      </c>
+      <c r="T8">
+        <v>0.003751533999887542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1597736666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.479321</v>
+      </c>
+      <c r="I9">
+        <v>0.07030372135776897</v>
+      </c>
+      <c r="J9">
+        <v>0.07030372135776895</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>61.787136</v>
+      </c>
+      <c r="N9">
+        <v>185.361408</v>
+      </c>
+      <c r="O9">
+        <v>0.06484908677504264</v>
+      </c>
+      <c r="P9">
+        <v>0.06484908677504266</v>
+      </c>
+      <c r="Q9">
+        <v>9.871957271552001</v>
+      </c>
+      <c r="R9">
+        <v>88.84761544396801</v>
+      </c>
+      <c r="S9">
+        <v>0.004559132126938379</v>
+      </c>
+      <c r="T9">
+        <v>0.004559132126938379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1597736666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.479321</v>
+      </c>
+      <c r="I10">
+        <v>0.07030372135776897</v>
+      </c>
+      <c r="J10">
+        <v>0.07030372135776895</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>840.1140543333335</v>
+      </c>
+      <c r="N10">
+        <v>2520.342163</v>
+      </c>
+      <c r="O10">
+        <v>0.8817471198275839</v>
+      </c>
+      <c r="P10">
+        <v>0.881747119827584</v>
+      </c>
+      <c r="Q10">
+        <v>134.2281028790359</v>
+      </c>
+      <c r="R10">
+        <v>1208.052925911323</v>
+      </c>
+      <c r="S10">
+        <v>0.06199010382037378</v>
+      </c>
+      <c r="T10">
+        <v>0.06199010382037378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.57764939157075</v>
-      </c>
-      <c r="H7">
-        <v>1.57764939157075</v>
-      </c>
-      <c r="I7">
-        <v>0.903041374760035</v>
-      </c>
-      <c r="J7">
-        <v>0.903041374760035</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>795.653269203361</v>
-      </c>
-      <c r="N7">
-        <v>795.653269203361</v>
-      </c>
-      <c r="O7">
-        <v>0.8856603143759427</v>
-      </c>
-      <c r="P7">
-        <v>0.8856603143759427</v>
-      </c>
-      <c r="Q7">
-        <v>1255.26189605996</v>
-      </c>
-      <c r="R7">
-        <v>1255.26189605996</v>
-      </c>
-      <c r="S7">
-        <v>0.7997879078644561</v>
-      </c>
-      <c r="T7">
-        <v>0.7997879078644561</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1597736666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.479321</v>
+      </c>
+      <c r="I11">
+        <v>0.07030372135776897</v>
+      </c>
+      <c r="J11">
+        <v>0.07030372135776895</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.008863666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.026591</v>
+      </c>
+      <c r="O11">
+        <v>9.302918471762789E-06</v>
+      </c>
+      <c r="P11">
+        <v>9.302918471762791E-06</v>
+      </c>
+      <c r="Q11">
+        <v>0.001416180523444445</v>
+      </c>
+      <c r="R11">
+        <v>0.012745624711</v>
+      </c>
+      <c r="S11">
+        <v>6.54029788052853E-07</v>
+      </c>
+      <c r="T11">
+        <v>6.54029788052853E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1431463333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.429439</v>
+      </c>
+      <c r="I12">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="J12">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.031135</v>
+      </c>
+      <c r="N12">
+        <v>0.093405</v>
+      </c>
+      <c r="O12">
+        <v>3.267793989902611E-05</v>
+      </c>
+      <c r="P12">
+        <v>3.267793989902611E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.004456861088333334</v>
+      </c>
+      <c r="R12">
+        <v>0.04011174979500001</v>
+      </c>
+      <c r="S12">
+        <v>2.058296851798221E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.058296851798222E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1431463333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.429439</v>
+      </c>
+      <c r="I13">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="J13">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>50.84225133333333</v>
+      </c>
+      <c r="N13">
+        <v>152.526754</v>
+      </c>
+      <c r="O13">
+        <v>0.05336181253900262</v>
+      </c>
+      <c r="P13">
+        <v>0.05336181253900263</v>
+      </c>
+      <c r="Q13">
+        <v>7.277881856778444</v>
+      </c>
+      <c r="R13">
+        <v>65.50093671100599</v>
+      </c>
+      <c r="S13">
+        <v>0.003361119186052158</v>
+      </c>
+      <c r="T13">
+        <v>0.003361119186052158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1431463333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.429439</v>
+      </c>
+      <c r="I14">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="J14">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>61.787136</v>
+      </c>
+      <c r="N14">
+        <v>185.361408</v>
+      </c>
+      <c r="O14">
+        <v>0.06484908677504264</v>
+      </c>
+      <c r="P14">
+        <v>0.06484908677504266</v>
+      </c>
+      <c r="Q14">
+        <v>8.844601965568001</v>
+      </c>
+      <c r="R14">
+        <v>79.601417690112</v>
+      </c>
+      <c r="S14">
+        <v>0.004084672153859919</v>
+      </c>
+      <c r="T14">
+        <v>0.00408467215385992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1431463333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.429439</v>
+      </c>
+      <c r="I15">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="J15">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>840.1140543333335</v>
+      </c>
+      <c r="N15">
+        <v>2520.342163</v>
+      </c>
+      <c r="O15">
+        <v>0.8817471198275839</v>
+      </c>
+      <c r="P15">
+        <v>0.881747119827584</v>
+      </c>
+      <c r="Q15">
+        <v>120.2592464596175</v>
+      </c>
+      <c r="R15">
+        <v>1082.333218136557</v>
+      </c>
+      <c r="S15">
+        <v>0.05553891482851261</v>
+      </c>
+      <c r="T15">
+        <v>0.05553891482851262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1431463333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.429439</v>
+      </c>
+      <c r="I16">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="J16">
+        <v>0.06298735043146231</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.008863666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.026591</v>
+      </c>
+      <c r="O16">
+        <v>9.302918471762789E-06</v>
+      </c>
+      <c r="P16">
+        <v>9.302918471762791E-06</v>
+      </c>
+      <c r="Q16">
+        <v>0.001268801383222222</v>
+      </c>
+      <c r="R16">
+        <v>0.011419212449</v>
+      </c>
+      <c r="S16">
+        <v>5.859661858162466E-07</v>
+      </c>
+      <c r="T16">
+        <v>5.859661858162467E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.610258</v>
+      </c>
+      <c r="H17">
+        <v>4.830774</v>
+      </c>
+      <c r="I17">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="J17">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.031135</v>
+      </c>
+      <c r="N17">
+        <v>0.093405</v>
+      </c>
+      <c r="O17">
+        <v>3.267793989902611E-05</v>
+      </c>
+      <c r="P17">
+        <v>3.267793989902611E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.05013538283</v>
+      </c>
+      <c r="R17">
+        <v>0.45121844547</v>
+      </c>
+      <c r="S17">
+        <v>2.315385169010896E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.315385169010896E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.610258</v>
+      </c>
+      <c r="H18">
+        <v>4.830774</v>
+      </c>
+      <c r="I18">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="J18">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>50.84225133333333</v>
+      </c>
+      <c r="N18">
+        <v>152.526754</v>
+      </c>
+      <c r="O18">
+        <v>0.05336181253900262</v>
+      </c>
+      <c r="P18">
+        <v>0.05336181253900263</v>
+      </c>
+      <c r="Q18">
+        <v>81.86914194751066</v>
+      </c>
+      <c r="R18">
+        <v>736.8222775275959</v>
+      </c>
+      <c r="S18">
+        <v>0.03780934469128776</v>
+      </c>
+      <c r="T18">
+        <v>0.03780934469128776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.610258</v>
+      </c>
+      <c r="H19">
+        <v>4.830774</v>
+      </c>
+      <c r="I19">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="J19">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>61.787136</v>
+      </c>
+      <c r="N19">
+        <v>185.361408</v>
+      </c>
+      <c r="O19">
+        <v>0.06484908677504264</v>
+      </c>
+      <c r="P19">
+        <v>0.06484908677504266</v>
+      </c>
+      <c r="Q19">
+        <v>99.493230041088</v>
+      </c>
+      <c r="R19">
+        <v>895.439070369792</v>
+      </c>
+      <c r="S19">
+        <v>0.04594861677535225</v>
+      </c>
+      <c r="T19">
+        <v>0.04594861677535225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.610258</v>
+      </c>
+      <c r="H20">
+        <v>4.830774</v>
+      </c>
+      <c r="I20">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="J20">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>840.1140543333335</v>
+      </c>
+      <c r="N20">
+        <v>2520.342163</v>
+      </c>
+      <c r="O20">
+        <v>0.8817471198275839</v>
+      </c>
+      <c r="P20">
+        <v>0.881747119827584</v>
+      </c>
+      <c r="Q20">
+        <v>1352.800376902685</v>
+      </c>
+      <c r="R20">
+        <v>12175.20339212416</v>
+      </c>
+      <c r="S20">
+        <v>0.6247591526195645</v>
+      </c>
+      <c r="T20">
+        <v>0.6247591526195646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.610258</v>
+      </c>
+      <c r="H21">
+        <v>4.830774</v>
+      </c>
+      <c r="I21">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="J21">
+        <v>0.7085468594915619</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.008863666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.026591</v>
+      </c>
+      <c r="O21">
+        <v>9.302918471762789E-06</v>
+      </c>
+      <c r="P21">
+        <v>9.302918471762791E-06</v>
+      </c>
+      <c r="Q21">
+        <v>0.01427279015933333</v>
+      </c>
+      <c r="R21">
+        <v>0.128455111434</v>
+      </c>
+      <c r="S21">
+        <v>6.591553667273565E-06</v>
+      </c>
+      <c r="T21">
+        <v>6.591553667273566E-06</v>
       </c>
     </row>
   </sheetData>
